--- a/Tableur d'avancement.xlsx
+++ b/Tableur d'avancement.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
   <si>
     <t xml:space="preserve">Étape</t>
   </si>
@@ -88,76 +88,79 @@
     <t xml:space="preserve">Vérification du permis de conduire</t>
   </si>
   <si>
+    <t xml:space="preserve">  DOUMBOUYA Sandaly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place de l’authentification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIRE Louis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En cours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connexion et gestion des sessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KABIDI Safir, IBEGHOUCHENE Juba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déconnexion sécurisée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBEGHOUCHENE Juba, MAIRE Louis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout et modification des véhicules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CISSÉ Papa El Hadji Gormack, IBEGHOUCHENE Juba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KABIDI Safir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche des véhicules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtrage des véhicules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réservation d’un véhicule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KABIDI Safir, CISSÉ Papa El Hadji Gormack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion des abonnements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHMITT Guillaume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Système de paiement sécurisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAZARI Ghiles, SCHMITT Guillaume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion des litiges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIRE Louis, IBEGHOUCHENE Juba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Étape 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion des rôles (Propriétaire, Loueur, Admin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface utilisateur améliorée</t>
+  </si>
+  <si>
     <t xml:space="preserve">IBEGHOUCHENE Juba, DOUMBOUYA Sandaly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mise en place de l’authentification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAIRE Louis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En cours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connexion et gestion des sessions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KABIDI Safir, IBEGHOUCHENE Juba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Déconnexion sécurisée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBEGHOUCHENE Juba, MAIRE Louis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajout et modification des véhicules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CISSÉ Papa El Hadji Gormack, IBEGHOUCHENE Juba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KABIDI Safir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche des véhicules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtrage des véhicules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réservation d’un véhicule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KABIDI Safir, CISSÉ Papa El Hadji Gormack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion des abonnements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCHMITT Guillaume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Système de paiement sécurisé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAZARI Ghiles, SCHMITT Guillaume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion des litiges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAIRE Louis, IBEGHOUCHENE Juba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Étape 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion des rôles (Propriétaire, Loueur, Admin)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interface utilisateur améliorée</t>
   </si>
   <si>
     <t xml:space="preserve">Système de notifications (Email, SMS)</t>
@@ -197,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,18 +237,7 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -329,7 +321,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -338,19 +330,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -358,23 +346,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -382,79 +362,43 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -713,7 +657,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -723,8 +667,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="45.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="41.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="24.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="67.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="67.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,50 +694,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
-    </row>
-    <row r="5" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A4" s="8"/>
+    </row>
+    <row r="5" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -802,72 +746,72 @@
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="E6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="E7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -876,16 +820,16 @@
       <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -894,310 +838,310 @@
       <c r="D10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="21" t="s">
+      <c r="E11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="23" t="s">
+    <row r="12" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="24"/>
-    </row>
-    <row r="13" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="E12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-    </row>
-    <row r="14" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="23" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="23" t="s">
+      <c r="E14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="16" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="23" t="s">
+      <c r="E15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="23" t="s">
+      <c r="E16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" s="28" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-    </row>
-    <row r="19" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
+      <c r="E17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="24"/>
-    </row>
-    <row r="20" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+      <c r="D20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
+      <c r="E23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="23" t="s">
+      <c r="B24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="24"/>
-    </row>
-    <row r="25" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="24"/>
+      <c r="E28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Tableur d'avancement.xlsx
+++ b/Tableur d'avancement.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="58">
   <si>
     <t xml:space="preserve">Étape</t>
   </si>
@@ -73,6 +73,12 @@
     <t xml:space="preserve">MAZARI Ghiles</t>
   </si>
   <si>
+    <t xml:space="preserve">EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En cours</t>
+  </si>
+  <si>
     <t xml:space="preserve">Télechargement du permis de conduire</t>
   </si>
   <si>
@@ -95,9 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve">MAIRE Louis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En cours</t>
   </si>
   <si>
     <t xml:space="preserve">Connexion et gestion des sessions</t>
@@ -200,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +244,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -269,14 +278,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -321,7 +330,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -358,19 +367,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -378,27 +387,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -657,7 +670,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -733,353 +746,359 @@
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
     </row>
-    <row r="5" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="10" t="s">
+    </row>
+    <row r="6" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="D6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="E6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="D20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="E22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="16"/>
+      <c r="E24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
@@ -1089,59 +1108,59 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="10" t="s">
+    <row r="26" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="B26" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="C27" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="D27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="16"/>
+      <c r="E28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
